--- a/GA/src/cr.xlsx
+++ b/GA/src/cr.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tawfiq/Desktop/thesis/GA/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F73A99F-506D-3B4A-BF0C-9FFA09F1B76C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14F471B-AA29-D64E-AE19-9F26057BA1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38020" yWindow="7240" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{69C7F7BE-B18F-E945-8724-06AE4F141E2B}"/>
+    <workbookView xWindow="71780" yWindow="7680" windowWidth="27240" windowHeight="16440" xr2:uid="{69C7F7BE-B18F-E945-8724-06AE4F141E2B}"/>
   </bookViews>
   <sheets>
     <sheet name="wholesalerA" sheetId="1" r:id="rId1"/>
     <sheet name="wholesalerB" sheetId="2" r:id="rId2"/>
+    <sheet name="wholesalerC" sheetId="3" r:id="rId3"/>
+    <sheet name="wholesalerD" sheetId="4" r:id="rId4"/>
+    <sheet name="wholesalerE" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="7">
   <si>
     <t>wholesalerVehicleA</t>
   </si>
@@ -46,6 +49,15 @@
   </si>
   <si>
     <t>retailerB</t>
+  </si>
+  <si>
+    <t>retailerC</t>
+  </si>
+  <si>
+    <t>retailerD</t>
+  </si>
+  <si>
+    <t>retailerE</t>
   </si>
 </sst>
 </file>
@@ -416,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC69423-E1C9-0F4F-B635-0C00F666DC81}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -455,6 +467,39 @@
         <v>50</v>
       </c>
     </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>50</v>
+      </c>
+      <c r="C5" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>50</v>
+      </c>
+      <c r="C6" s="3">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -462,10 +507,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFFAFA1C-7C72-CB48-8DB7-509BFDF53A32}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -501,6 +546,276 @@
         <v>50</v>
       </c>
     </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>50</v>
+      </c>
+      <c r="C5" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>50</v>
+      </c>
+      <c r="C6" s="3">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78BD31CF-E5D8-E543-B8AF-17407EB30530}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>50</v>
+      </c>
+      <c r="C2" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>50</v>
+      </c>
+      <c r="C3" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>50</v>
+      </c>
+      <c r="C5" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>50</v>
+      </c>
+      <c r="C6" s="3">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21871473-A60F-E94A-A0D1-1C6DE4EF2740}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>50</v>
+      </c>
+      <c r="C2" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>50</v>
+      </c>
+      <c r="C3" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>50</v>
+      </c>
+      <c r="C5" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>50</v>
+      </c>
+      <c r="C6" s="3">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33F023B8-8C62-124B-AB50-BB82CAD8C085}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>50</v>
+      </c>
+      <c r="C2" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>50</v>
+      </c>
+      <c r="C3" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>50</v>
+      </c>
+      <c r="C5" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>50</v>
+      </c>
+      <c r="C6" s="3">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
